--- a/고객정보_시스템확인/SourceData/RI52540.xlsx
+++ b/고객정보_시스템확인/SourceData/RI52540.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\고객정보_시스템확인\SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56909CEA-2C45-4B0B-874B-2AC6E7B06735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE6A5B4-20C8-45FB-9C41-0D3E8578AD6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="11232" xr2:uid="{0ACA05CB-B3DA-4531-A6C5-FA58011CD168}"/>
+    <workbookView xWindow="0" yWindow="936" windowWidth="23040" windowHeight="10416" xr2:uid="{0ACA05CB-B3DA-4531-A6C5-FA58011CD168}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,103 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
-  <si>
-    <t>1 9</t>
-  </si>
-  <si>
-    <t>0 6</t>
-  </si>
-  <si>
-    <t>9 8</t>
-  </si>
-  <si>
-    <t>9 2</t>
-  </si>
-  <si>
-    <t>6 3</t>
-  </si>
-  <si>
-    <t>4 3</t>
-  </si>
-  <si>
-    <t>7 6</t>
-  </si>
-  <si>
-    <t>3 3</t>
-  </si>
-  <si>
-    <t>5 9</t>
-  </si>
-  <si>
-    <t>8 7</t>
-  </si>
-  <si>
-    <t>9 7</t>
-  </si>
-  <si>
-    <t>9 6</t>
-  </si>
-  <si>
-    <t>8 8</t>
-  </si>
-  <si>
-    <t>1 7</t>
-  </si>
-  <si>
-    <t>2 0</t>
-  </si>
-  <si>
-    <t>0 3</t>
-  </si>
-  <si>
-    <t>3 6</t>
-  </si>
-  <si>
-    <t>4 9</t>
-  </si>
-  <si>
-    <t>0 9</t>
-  </si>
-  <si>
-    <t>4 2</t>
-  </si>
-  <si>
-    <t>7 1</t>
-  </si>
-  <si>
-    <t>1 2</t>
-  </si>
-  <si>
-    <t>8 9</t>
-  </si>
-  <si>
-    <t>6 1</t>
-  </si>
-  <si>
-    <t>5 3</t>
-  </si>
-  <si>
-    <t>0 5</t>
-  </si>
-  <si>
-    <t>1 4</t>
-  </si>
-  <si>
-    <t>1 1</t>
-  </si>
-  <si>
-    <t>6 2</t>
-  </si>
-  <si>
-    <t>2 5</t>
-  </si>
-  <si>
-    <t>3 1</t>
-  </si>
-  <si>
-    <t>4 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>TransactionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +47,123 @@
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-04-20  12:00:00</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>2017-01-04  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-09  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-19  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-09  12:00:00</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>2017-02-22  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-17  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-04  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-03  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-21  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-23  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-12  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-10  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-14  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-08  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-05  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-05  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-16  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-28  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-03  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-22  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-19  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-06  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-08  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-24  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-08  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-13  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-26  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-19  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-02  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-29  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-27  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-31  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-09  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-28  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-20  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-02  12:00:00</t>
   </si>
 </sst>
 </file>
@@ -514,589 +535,589 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>11995665</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
+        <v>279716</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>5</v>
+        <v>50634106</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
+        <v>279442</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>4</v>
+        <v>49829310</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
+        <v>270703</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
+        <v>89296731</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
       <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
+        <v>123085</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>8</v>
+        <v>86365173</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
+        <v>112091</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1</v>
+        <v>11939494</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
+        <v>160684</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>3</v>
+        <v>34319174</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
+        <v>142220</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>3</v>
+        <v>37658016</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
+        <v>206677</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>4</v>
+        <v>43393067</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
+        <v>171626</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>6</v>
+        <v>65949033</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
+        <v>53889</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>7</v>
+        <v>78718335</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
+        <v>252349</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>2</v>
+        <v>29792450</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
+        <v>-66683</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>3</v>
+        <v>39652385</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
+        <v>-87354</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1</v>
+        <v>18847425</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
+        <v>15670</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>5</v>
+        <v>51715671</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+        <v>-226263</v>
+      </c>
+      <c r="D16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>8</v>
+        <v>82090484</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>-149378</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>8</v>
+        <v>80320854</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+        <v>294630</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>7</v>
+        <v>73661547</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>-182220</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>9</v>
+        <v>91952676</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
+        <v>206410</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>2</v>
+        <v>24303637</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
+        <v>-188917</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>7</v>
+        <v>70681466</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+        <v>113304</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>2</v>
+        <v>24969466</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>9</v>
+        <v>66926</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>9</v>
+        <v>90951751</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+        <v>253276</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>4</v>
+        <v>44272287</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
+        <v>275563</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>8</v>
+        <v>86355217</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
+        <v>-145810</v>
+      </c>
+      <c r="D26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>4</v>
+        <v>47178986</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>8</v>
+        <v>-49745</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>5</v>
+        <v>51234393</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
+        <v>-2469</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>4</v>
+        <v>48996139</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
+        <v>135967</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>9</v>
+        <v>91268741</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
+        <v>-151412</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>5</v>
+        <v>56163887</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
+        <v>173095</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>4</v>
+        <v>45319783</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
+        <v>-262495</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>5</v>
+        <v>50504806</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
+        <v>25196</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>2</v>
+        <v>21450763</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
+        <v>-219519</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>6</v>
+        <v>63317806</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>7</v>
+        <v>-131144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1</v>
+        <v>11140958</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
+        <v>-284257</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>2</v>
+        <v>26292929</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
+        <v>21325</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>5</v>
+        <v>52599589</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
+        <v>93075</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>4</v>
+        <v>43156141</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
+        <v>259326</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>6</v>
+        <v>61132946</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
+        <v>-161195</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>4</v>
+        <v>41906366</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>6</v>
+        <v>-195494</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>7</v>
+        <v>74065495</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>6</v>
-      </c>
-      <c r="D42">
+        <v>37047</v>
+      </c>
+      <c r="D42" t="s">
         <v>5</v>
       </c>
     </row>

--- a/고객정보_시스템확인/SourceData/RI52540.xlsx
+++ b/고객정보_시스템확인/SourceData/RI52540.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\고객정보_시스템확인\SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE6A5B4-20C8-45FB-9C41-0D3E8578AD6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD36E8-8685-469B-8B2E-4A60093C3217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="936" windowWidth="23040" windowHeight="10416" xr2:uid="{0ACA05CB-B3DA-4531-A6C5-FA58011CD168}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A93FE415-5362-4CBD-AC0E-4792611C982D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,139 +31,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>TransactionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Transaction Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-04-20  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-09-02  12:00:00</t>
   </si>
   <si>
     <t>Online</t>
   </si>
   <si>
-    <t>2017-01-04  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-04-09  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-04-19  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-02-09  12:00:00</t>
+    <t>2017-12-14  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-10-11  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-14  12:00:00</t>
   </si>
   <si>
     <t>Offline</t>
   </si>
   <si>
-    <t>2017-02-22  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-17  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-04-04  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-02-03  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-05-21  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-23  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-04-12  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-10  12:00:00</t>
+    <t>2017-12-11  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-12-22  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-09-03  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-24  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-06-20  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-11-11  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-03  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-08  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-16  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-10-23  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-18  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-12-03  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-11-28  12:00:00</t>
   </si>
   <si>
     <t>2017-03-14  12:00:00</t>
   </si>
   <si>
-    <t>2017-02-08  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-05  12:00:00</t>
+    <t>2017-04-26  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-06-10  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-03  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-11  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-06-17  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-11-20  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-09-07  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-30  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-10  12:00:00</t>
+  </si>
+  <si>
+    <t>2018-01-15  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-08-15  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-10-26  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-08-17  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-28  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-09-20  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-09  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-11  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-08-11  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-10  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-12-12  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-10-03  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-09-27  12:00:00</t>
+  </si>
+  <si>
+    <t>2018-01-04  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-13  12:00:00</t>
+  </si>
+  <si>
+    <t>2018-01-16  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-10-07  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-31  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-11-29  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-06-11  12:00:00</t>
   </si>
   <si>
     <t>2017-03-05  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-04-16  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-02-28  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-03  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-22  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-05-19  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-02-06  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-08  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-02-24  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-05-08  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-13  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-26  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-19  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-05-02  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-29  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-04-27  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-31  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-09  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-28  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-20  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-02  12:00:00</t>
   </si>
 </sst>
 </file>
@@ -526,8 +555,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F88477-F89B-45D4-A791-5A2ED441E5D2}">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CA0BF2-F422-4884-B0F5-7AAD1B08F32E}">
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,13 +578,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>11995665</v>
+        <v>56597603</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>279716</v>
+        <v>108806</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -563,13 +592,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>50634106</v>
+        <v>80415912</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>279442</v>
+        <v>-114146</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -577,13 +606,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>49829310</v>
+        <v>59317255</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>270703</v>
+        <v>185626</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -591,41 +620,41 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>89296731</v>
+        <v>17925941</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>123085</v>
+        <v>-250309</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>86365173</v>
+        <v>86353262</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>112091</v>
+        <v>24850</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>11939494</v>
+        <v>88894630</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>160684</v>
+        <v>250534</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -633,27 +662,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>34319174</v>
+        <v>81596479</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>142220</v>
+        <v>213995</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>37658016</v>
+        <v>75859694</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>206677</v>
+        <v>-210566</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -661,13 +690,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>43393067</v>
+        <v>98714904</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10">
-        <v>171626</v>
+        <v>276480</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -675,13 +704,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>65949033</v>
+        <v>14883329</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>53889</v>
+        <v>-232151</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -689,13 +718,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>78718335</v>
+        <v>32956343</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12">
-        <v>252349</v>
+        <v>-99488</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -703,27 +732,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>29792450</v>
+        <v>17800389</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13">
-        <v>-66683</v>
+        <v>-58921</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>39652385</v>
+        <v>57829432</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14">
-        <v>-87354</v>
+        <v>172221</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -731,13 +760,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>18847425</v>
+        <v>92232690</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15">
-        <v>15670</v>
+        <v>160619</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -745,13 +774,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>51715671</v>
+        <v>93584234</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16">
-        <v>-226263</v>
+        <v>202410</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -759,13 +788,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>82090484</v>
+        <v>72948343</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17">
-        <v>-149378</v>
+        <v>133650</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -773,13 +802,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>80320854</v>
+        <v>85126123</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18">
-        <v>294630</v>
+        <v>-197443</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -787,13 +816,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>73661547</v>
+        <v>38741697</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19">
-        <v>-182220</v>
+        <v>203247</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -801,13 +830,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>91952676</v>
+        <v>20717512</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20">
-        <v>206410</v>
+        <v>129037</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -815,27 +844,27 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>24303637</v>
+        <v>50333124</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>-188917</v>
+        <v>-71260</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>70681466</v>
+        <v>94860126</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>113304</v>
+        <v>-120053</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -843,13 +872,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>24969466</v>
+        <v>10705264</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>66926</v>
+        <v>140235</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -857,27 +886,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>90951751</v>
+        <v>66773838</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>253276</v>
+        <v>-68320</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>44272287</v>
+        <v>73130937</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>275563</v>
+        <v>280144</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -885,13 +914,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>86355217</v>
+        <v>49246010</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>-145810</v>
+        <v>-66364</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -899,41 +928,41 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>47178986</v>
+        <v>98253906</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>-49745</v>
+        <v>-260659</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>51234393</v>
+        <v>70877326</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>-2469</v>
+        <v>37600</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>48996139</v>
+        <v>31140790</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>135967</v>
+        <v>-44371</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -941,27 +970,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>91268741</v>
+        <v>88164326</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>-151412</v>
+        <v>-208416</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>56163887</v>
+        <v>30693818</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>173095</v>
+        <v>24105</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -969,13 +998,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>45319783</v>
+        <v>93090575</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>-262495</v>
+        <v>-69364</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -983,13 +1012,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>50504806</v>
+        <v>53989236</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>25196</v>
+        <v>154379</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -997,13 +1026,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>21450763</v>
+        <v>93790614</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34">
-        <v>-219519</v>
+        <v>294959</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1011,13 +1040,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>63317806</v>
+        <v>19213561</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C35">
-        <v>-131144</v>
+        <v>-243044</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1025,13 +1054,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>11140958</v>
+        <v>48852418</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>-284257</v>
+        <v>-178875</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1039,55 +1068,55 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>26292929</v>
+        <v>93668657</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37">
-        <v>21325</v>
+        <v>25686</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>52599589</v>
+        <v>63174037</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>93075</v>
+        <v>-158743</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>43156141</v>
+        <v>20254201</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C39">
-        <v>259326</v>
+        <v>-188134</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>61132946</v>
+        <v>71345910</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C40">
-        <v>-161195</v>
+        <v>193494</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1095,13 +1124,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>41906366</v>
+        <v>53906333</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C41">
-        <v>-195494</v>
+        <v>-33664</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1109,16 +1138,142 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>74065495</v>
+        <v>27459600</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>37047</v>
+        <v>-71793</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>78330020</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>38970</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>70168630</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>58265</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>32818602</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>26536</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>23711554</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>278991</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>75985500</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>228891</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>42243268</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>112285</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>92549795</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49">
+        <v>-100648</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>65731039</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>-175730</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>97784924</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>261556</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
